--- a/OnBoard/output/trust/catch/Catch_Trust_46.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_46.xlsx
@@ -1556,7 +1556,7 @@
         <v>0.056</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I29">
         <v>32.70785714285714</v>
@@ -2089,7 +2089,7 @@
         <v>1.445</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I42">
         <v>32.70785714285714</v>
@@ -2212,7 +2212,7 @@
         <v>0.01</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
         <v>32.70785714285714</v>
@@ -2294,7 +2294,7 @@
         <v>0.196</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I47">
         <v>32.70785714285714</v>
